--- a/Examples/chloralcaly/chloralkaly_model.xlsx
+++ b/Examples/chloralcaly/chloralkaly_model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\chloralcaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EBA4D79-D2B5-4A65-9527-F9F3183F50DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8BE54-669E-4E41-9A3F-48F4A9B2B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="555" windowWidth="25740" windowHeight="14700" activeTab="1" xr2:uid="{5AE74EF0-12DB-42B6-946E-1D984B03B3B1}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5AE74EF0-12DB-42B6-946E-1D984B03B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Flows" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
   <si>
     <t>F1</t>
   </si>
@@ -138,18 +138,6 @@
     <t>type</t>
   </si>
   <si>
-    <t>IN1</t>
-  </si>
-  <si>
-    <t>IN2</t>
-  </si>
-  <si>
-    <t>IN3</t>
-  </si>
-  <si>
-    <t>IN4</t>
-  </si>
-  <si>
     <t>P1F5</t>
   </si>
   <si>
@@ -210,15 +198,6 @@
     <t>OUT9</t>
   </si>
   <si>
-    <t>OUT11</t>
-  </si>
-  <si>
-    <t>OUT12</t>
-  </si>
-  <si>
-    <t>OUT13</t>
-  </si>
-  <si>
     <t>RESOURCES</t>
   </si>
   <si>
@@ -430,6 +409,30 @@
   </si>
   <si>
     <t>P7F9+(P4F9-OUT9)</t>
+  </si>
+  <si>
+    <t>Hau</t>
+  </si>
+  <si>
+    <t>H2O</t>
+  </si>
+  <si>
+    <t>NaCl</t>
+  </si>
+  <si>
+    <t>Elec</t>
+  </si>
+  <si>
+    <t>H2SO4</t>
+  </si>
+  <si>
+    <t>NaOH</t>
+  </si>
+  <si>
+    <t>H2</t>
+  </si>
+  <si>
+    <t>Cl2</t>
   </si>
 </sst>
 </file>
@@ -890,7 +893,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -905,218 +908,218 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B19" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B20" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" t="s">
         <v>52</v>
-      </c>
-      <c r="B23" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1141,7 +1144,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1161,234 +1164,234 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B7" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="D8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="D9" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B10" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="B11" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C11" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D11" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E11" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C12" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D12" t="s">
-        <v>55</v>
+        <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C13" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C14" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D14" t="s">
-        <v>57</v>
+        <v>129</v>
       </c>
       <c r="E14" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1413,13 +1416,13 @@
         <v>key</v>
       </c>
       <c r="B1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
-        <v>IN1</v>
+        <v>H2O</v>
       </c>
       <c r="B2">
         <v>9.8000000000000004E-2</v>
@@ -1428,7 +1431,7 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
-        <v>IN2</v>
+        <v>NaCl</v>
       </c>
       <c r="B3">
         <v>3.08</v>
@@ -1437,7 +1440,7 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
-        <v>IN3</v>
+        <v>Elec</v>
       </c>
       <c r="B4">
         <f>'Table IO'!D15</f>
@@ -1447,7 +1450,7 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
-        <v>IN4</v>
+        <v>H2SO4</v>
       </c>
       <c r="B5">
         <f>'Table IO'!E15</f>
@@ -1657,7 +1660,7 @@
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Flows!A26</f>
-        <v>OUT11</v>
+        <v>NaOH</v>
       </c>
       <c r="B26">
         <f>'Table IO'!O12</f>
@@ -1667,7 +1670,7 @@
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Flows!A27</f>
-        <v>OUT12</v>
+        <v>H2</v>
       </c>
       <c r="B27">
         <f>'Table IO'!O13</f>
@@ -1677,7 +1680,7 @@
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Flows!A28</f>
-        <v>OUT13</v>
+        <v>Cl2</v>
       </c>
       <c r="B28">
         <f>'Table IO'!O14</f>
@@ -1707,18 +1710,18 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1727,12 +1730,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1741,12 +1744,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1755,12 +1758,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1769,12 +1772,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1783,12 +1786,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1797,7 +1800,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1807,15 +1810,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E823BF7F-3357-485A-8DA7-833D89C4A90C}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="A2" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
@@ -1823,50 +1826,65 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+      <c r="D1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
         <v>2.653</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C4">
+        <v>1.79</v>
+      </c>
+      <c r="D4">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="C5">
+        <v>2.08</v>
+      </c>
+      <c r="D5">
         <v>2</v>
       </c>
     </row>
@@ -1914,75 +1932,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B2" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/Examples/chloralcaly/chloralkaly_model.xlsx
+++ b/Examples/chloralcaly/chloralkaly_model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctorr\Documents\Proyectos\TaesLab\Examples\chloralcaly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C8BE54-669E-4E41-9A3F-48F4A9B2B01B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{291509E7-5ED6-456C-B3C6-80A4886743D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{5AE74EF0-12DB-42B6-946E-1D984B03B3B1}"/>
+    <workbookView xWindow="5610" yWindow="720" windowWidth="19005" windowHeight="14700" xr2:uid="{5AE74EF0-12DB-42B6-946E-1D984B03B3B1}"/>
   </bookViews>
   <sheets>
     <sheet name="Flows" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="154">
   <si>
     <t>F1</t>
   </si>
@@ -195,9 +195,6 @@
     <t>P10F13</t>
   </si>
   <si>
-    <t>OUT9</t>
-  </si>
-  <si>
     <t>RESOURCES</t>
   </si>
   <si>
@@ -234,12 +231,6 @@
     <t>Cl2 Compressor</t>
   </si>
   <si>
-    <t>Cooler</t>
-  </si>
-  <si>
-    <t>Cooler Drier</t>
-  </si>
-  <si>
     <t>Water Reservoir</t>
   </si>
   <si>
@@ -294,30 +285,6 @@
     <t>U13</t>
   </si>
   <si>
-    <t>P1F5+P1F8</t>
-  </si>
-  <si>
-    <t>P3F6+P3F10+P3F11+P3F12+P3F13</t>
-  </si>
-  <si>
-    <t>P8F7+P8F11+P8F12</t>
-  </si>
-  <si>
-    <t>P8F7+P5F7+P6F7</t>
-  </si>
-  <si>
-    <t>P7F5+P7F8+P7F9</t>
-  </si>
-  <si>
-    <t>P3F10+P9F10</t>
-  </si>
-  <si>
-    <t>P8F11+P3F11</t>
-  </si>
-  <si>
-    <t>P10F13+P3F13</t>
-  </si>
-  <si>
     <t>REF</t>
   </si>
   <si>
@@ -396,33 +363,15 @@
     <t>(MJ/MJ)</t>
   </si>
   <si>
-    <t>P8F12+P3F12</t>
-  </si>
-  <si>
     <t>Base</t>
   </si>
   <si>
-    <t>P1F5+P2F5+P7F5</t>
-  </si>
-  <si>
-    <t>P1F8+P7F8</t>
-  </si>
-  <si>
-    <t>P7F9+(P4F9-OUT9)</t>
-  </si>
-  <si>
-    <t>Hau</t>
-  </si>
-  <si>
     <t>H2O</t>
   </si>
   <si>
     <t>NaCl</t>
   </si>
   <si>
-    <t>Elec</t>
-  </si>
-  <si>
     <t>H2SO4</t>
   </si>
   <si>
@@ -433,6 +382,129 @@
   </si>
   <si>
     <t>Cl2</t>
+  </si>
+  <si>
+    <t>RNW</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>B2</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>W6</t>
+  </si>
+  <si>
+    <t>W10</t>
+  </si>
+  <si>
+    <t>W11</t>
+  </si>
+  <si>
+    <t>W12</t>
+  </si>
+  <si>
+    <t>W13</t>
+  </si>
+  <si>
+    <t>WDC</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>B8</t>
+  </si>
+  <si>
+    <t>B9</t>
+  </si>
+  <si>
+    <t>B10</t>
+  </si>
+  <si>
+    <t>B6</t>
+  </si>
+  <si>
+    <t>B11</t>
+  </si>
+  <si>
+    <t>B12</t>
+  </si>
+  <si>
+    <t>B13</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Coal</t>
+  </si>
+  <si>
+    <t>Salt</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Sulfur</t>
+  </si>
+  <si>
+    <t>B1+B2</t>
+  </si>
+  <si>
+    <t>W6+W10+W11+W12+W13</t>
+  </si>
+  <si>
+    <t>B1+B3+B6</t>
+  </si>
+  <si>
+    <t>B6+B7+B8</t>
+  </si>
+  <si>
+    <t>B9+B5+WDC</t>
+  </si>
+  <si>
+    <t>B2+B7</t>
+  </si>
+  <si>
+    <t>B9+B10+B11</t>
+  </si>
+  <si>
+    <t>B8+(B4-H2SO4)</t>
+  </si>
+  <si>
+    <t>W10+B12</t>
+  </si>
+  <si>
+    <t>W11+B10</t>
+  </si>
+  <si>
+    <t>W12+B11</t>
+  </si>
+  <si>
+    <t>W13+B13</t>
+  </si>
+  <si>
+    <t>Cooler NaOH</t>
+  </si>
+  <si>
+    <t>Cooler Drier H2</t>
+  </si>
+  <si>
+    <t>Cooler Cl2</t>
+  </si>
+  <si>
+    <t>SLF</t>
   </si>
 </sst>
 </file>
@@ -890,239 +962,324 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20073E8D-1175-4F06-A6A7-99D763BBF51D}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
       <c r="B1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B7" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>117</v>
+      </c>
+      <c r="B9" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B10" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>123</v>
       </c>
-      <c r="B2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>124</v>
       </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>125</v>
       </c>
-      <c r="B4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>126</v>
       </c>
-      <c r="B5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>127</v>
+      </c>
+      <c r="B20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>128</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>131</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>109</v>
+      </c>
+      <c r="B25" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C25" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="C26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="C27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>41</v>
-      </c>
-      <c r="B16" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>42</v>
-      </c>
-      <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B20" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B23" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>127</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B28" t="s">
-        <v>53</v>
+      <c r="C28" t="s">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -1143,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24926EDF-B161-4D98-AE1E-A5A497C9169D}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1152,8 +1309,8 @@
     <col min="1" max="1" width="7.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.5703125" customWidth="1"/>
     <col min="3" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.85546875" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1164,234 +1321,234 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
         <v>54</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>55</v>
-      </c>
-      <c r="E1" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="D2" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>116</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="D4" t="s">
-        <v>84</v>
+        <v>139</v>
       </c>
       <c r="E4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>123</v>
       </c>
       <c r="E5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>117</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>142</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C9" t="s">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>85</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>131</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C11" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="D11" t="s">
-        <v>49</v>
+        <v>132</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>90</v>
+        <v>149</v>
       </c>
       <c r="D14" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -1402,24 +1559,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5E3F6C-1997-4FCE-9977-215400FD41AC}">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="A2" sqref="A2:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>Flows!A1</f>
         <v>key</v>
       </c>
       <c r="B1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
         <f>Flows!A2</f>
         <v>H2O</v>
@@ -1427,8 +1587,11 @@
       <c r="B2">
         <v>9.8000000000000004E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f>Flows!A3</f>
         <v>NaCl</v>
@@ -1436,228 +1599,299 @@
       <c r="B3">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f>Flows!A4</f>
-        <v>Elec</v>
+        <v>Coal</v>
       </c>
       <c r="B4">
         <f>'Table IO'!D15</f>
         <v>60.31</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4">
+        <f>15.204</f>
+        <v>15.204000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f>Flows!A5</f>
-        <v>H2SO4</v>
+        <v>SLF</v>
       </c>
       <c r="B5">
         <f>'Table IO'!E15</f>
         <v>3.19</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>15.2</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f>Flows!A6</f>
-        <v>P1F5</v>
+        <v>B1</v>
       </c>
       <c r="B6">
         <f>'Table IO'!F2</f>
         <v>8.0000000000000002E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <v>8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f>Flows!A7</f>
-        <v>P1F8</v>
+        <v>B2</v>
       </c>
       <c r="B7">
         <f>'Table IO'!I2</f>
         <v>0.09</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f>Flows!A8</f>
-        <v>P2F5</v>
+        <v>B3</v>
       </c>
       <c r="B8">
         <f>'Table IO'!F3</f>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f>Flows!A9</f>
-        <v>P3F6</v>
+        <v>W6</v>
       </c>
       <c r="B9">
         <f>'Table IO'!G4</f>
         <v>13.22</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>13.22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f>Flows!A10</f>
-        <v>P3F10</v>
+        <v>W10</v>
       </c>
       <c r="B10">
         <f>'Table IO'!K4</f>
         <v>0.24</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <v>0.24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f>Flows!A11</f>
-        <v>P3F11</v>
+        <v>W11</v>
       </c>
       <c r="B11">
         <f>'Table IO'!L4</f>
         <v>0.23</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f>Flows!A12</f>
-        <v>P3F12</v>
+        <v>W12</v>
       </c>
       <c r="B12">
         <f>'Table IO'!M4</f>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f>Flows!A13</f>
-        <v>P3F13</v>
+        <v>W13</v>
       </c>
       <c r="B13">
         <f>'Table IO'!N4</f>
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f>Flows!A14</f>
-        <v>P4F9</v>
+        <v>B4</v>
       </c>
       <c r="B14">
         <f>'Table IO'!J5</f>
         <v>0.57999999999999996</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f>Flows!A15</f>
-        <v>P5F7</v>
+        <v>B5</v>
       </c>
       <c r="B15">
         <f>'Table IO'!H6</f>
         <v>3.24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f>Flows!A16</f>
-        <v>P6F7</v>
+        <v>WDC</v>
       </c>
       <c r="B16">
         <f>'Table IO'!H7</f>
         <v>12.79</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f>Flows!A17</f>
-        <v>P7F5</v>
+        <v>B6</v>
       </c>
       <c r="B17">
         <f>'Table IO'!F8</f>
         <v>3.24</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>3.24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f>Flows!A18</f>
-        <v>P7F8</v>
+        <v>B7</v>
       </c>
       <c r="B18">
         <f>'Table IO'!I8</f>
         <v>7.86</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>7.86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f>Flows!A19</f>
-        <v>P7F9</v>
+        <v>B8</v>
       </c>
       <c r="B19">
         <f>'Table IO'!J8</f>
         <v>1.78</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f>Flows!A20</f>
-        <v>P8F7</v>
+        <v>B9</v>
       </c>
       <c r="B20">
         <f>'Table IO'!H9</f>
         <v>1.1399999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1.1399999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f>Flows!A21</f>
-        <v>P8F11</v>
+        <v>B10</v>
       </c>
       <c r="B21">
         <f>'Table IO'!L9</f>
         <v>1.53</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f>Flows!A22</f>
-        <v>P8F12</v>
+        <v>B11</v>
       </c>
       <c r="B22">
         <f>'Table IO'!M9</f>
         <v>3.35</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f>Flows!A23</f>
-        <v>P9F10</v>
+        <v>B12</v>
       </c>
       <c r="B23">
         <f>'Table IO'!K10</f>
         <v>1.74</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f>Flows!A24</f>
-        <v>P10F13</v>
+        <v>B13</v>
       </c>
       <c r="B24">
         <f>'Table IO'!N11</f>
         <v>1.8120000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1.8120000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f>Flows!A25</f>
-        <v>OUT9</v>
+        <v>H2SO4</v>
       </c>
       <c r="B25">
         <f>'Table IO'!O10</f>
         <v>0.42</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>0.42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f>Flows!A26</f>
         <v>NaOH</v>
@@ -1666,8 +1900,11 @@
         <f>'Table IO'!O12</f>
         <v>1.4550000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C26">
+        <v>1.4550000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f>Flows!A27</f>
         <v>H2</v>
@@ -1676,14 +1913,20 @@
         <f>'Table IO'!O13</f>
         <v>3.3050000000000002</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C27">
+        <v>3.3050000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f>Flows!A28</f>
         <v>Cl2</v>
       </c>
       <c r="B28">
         <f>'Table IO'!O14</f>
+        <v>1.8120000000000001</v>
+      </c>
+      <c r="C28">
         <v>1.8120000000000001</v>
       </c>
     </row>
@@ -1710,18 +1953,18 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="B2">
         <v>10</v>
@@ -1730,12 +1973,12 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -1744,12 +1987,12 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="B4">
         <v>10</v>
@@ -1758,12 +2001,12 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1772,12 +2015,12 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B6">
         <v>10</v>
@@ -1786,12 +2029,12 @@
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B7">
         <v>10</v>
@@ -1800,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -1813,7 +2056,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1826,21 +2069,21 @@
         <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D1" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2.653</v>
       </c>
       <c r="D2">
         <v>2.653</v>
@@ -1848,10 +2091,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>1</v>
@@ -1862,27 +2105,28 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C4">
-        <v>1.79</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="C5">
-        <v>2.08</v>
+        <f>6.38/3.19</f>
+        <v>2</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -1932,75 +2176,75 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="C3" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D3" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>91</v>
       </c>
       <c r="C5" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
